--- a/B2503/B2503/sql_script/B2503_table_script.xlsx
+++ b/B2503/B2503/sql_script/B2503_table_script.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\B2503\B2503\B2503\sql_script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{48A10F3B-E89D-4FED-A161-6EE3E4520842}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1A7BEAD6-6D87-48D7-ADE8-D3E6140C4CC0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17490" windowHeight="7935" activeTab="1" xr2:uid="{B511DDB9-AB85-4545-83A1-D5EE0C39C718}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17490" windowHeight="7935" xr2:uid="{B511DDB9-AB85-4545-83A1-D5EE0C39C718}"/>
   </bookViews>
   <sheets>
     <sheet name="매매요청TABLE" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="80">
   <si>
     <t>JONGMOK_CD</t>
   </si>
@@ -270,6 +270,31 @@
   </si>
   <si>
     <t>매수조건B_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELL_COND_A_STRING</t>
+  </si>
+  <si>
+    <t>SELL_COND_B_DATE</t>
+  </si>
+  <si>
+    <t>SELL_COND_B_STRING</t>
+  </si>
+  <si>
+    <t>SELL_COND_C_DATE</t>
+  </si>
+  <si>
+    <t>SELL_COND_C_STRING</t>
+  </si>
+  <si>
+    <t>SELL_COND_D_DATE</t>
+  </si>
+  <si>
+    <t>SELL_COND_D_STRING</t>
+  </si>
+  <si>
+    <t>SELL_COND_A_DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -294,12 +319,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -316,8 +347,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -636,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77033B10-A9CE-4B05-B711-5744C3613519}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -649,21 +683,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -978,330 +1015,352 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D690CE8-9039-49DE-8333-55166EE5AC15}">
-  <dimension ref="A3:H22"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D14" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="F14" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="E15" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>2</v>
-      </c>
-      <c r="G15" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="F16" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="E17" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>2</v>
-      </c>
-      <c r="G17" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="F18" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="E19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" t="s">
         <v>20</v>
       </c>
-      <c r="F19" t="s">
-        <v>2</v>
-      </c>
-      <c r="G19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" t="s">
-        <v>45</v>
-      </c>
       <c r="F20" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E21" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" t="s">
         <v>29</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G21" t="s">
         <v>30</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H21" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>